--- a/Crawling/music/crawled_data/live_bugs/live_bugs_20220508_110800.xlsx
+++ b/Crawling/music/crawled_data/live_bugs/live_bugs_20220508_110800.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-08</t>
@@ -2094,7 +2094,6 @@
         <v>146</v>
       </c>
       <c r="F53">
-        <f/>
         <v>0</v>
       </c>
     </row>
